--- a/src/test/resources/TestDriver/TestEvent/ReferenceData/RefData_SBO_EVENTS.xlsx
+++ b/src/test/resources/TestDriver/TestEvent/ReferenceData/RefData_SBO_EVENTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestEvent\ReferenceData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92B3DBF0-64C7-4AEC-AFCD-DB2E1FED113C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2970293F-E97D-4E4E-98E5-34AABE5A95AC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="80">
   <si>
     <t>Name</t>
   </si>
@@ -315,6 +315,12 @@
   </si>
   <si>
     <t>TRANS6</t>
+  </si>
+  <si>
+    <t>TRANS7</t>
+  </si>
+  <si>
+    <t>TRANS8</t>
   </si>
 </sst>
 </file>
@@ -652,10 +658,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D17"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -874,6 +880,34 @@
         <v>1</v>
       </c>
       <c r="D15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A16" s="11" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16">
+        <v>0</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+      <c r="D16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A17" s="11" t="s">
+        <v>79</v>
+      </c>
+      <c r="B17">
+        <v>0</v>
+      </c>
+      <c r="C17">
+        <v>1</v>
+      </c>
+      <c r="D17">
         <v>0</v>
       </c>
     </row>

--- a/src/test/resources/TestDriver/TestEvent/ReferenceData/RefData_SBO_EVENTS.xlsx
+++ b/src/test/resources/TestDriver/TestEvent/ReferenceData/RefData_SBO_EVENTS.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestEvent\ReferenceData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CFD64F6F-C026-42B2-9B15-2C84F4870D8D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615E073D-04B6-4990-AD89-4511F77CE212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,7 +81,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="91">
   <si>
     <t>Name</t>
   </si>
@@ -348,6 +348,12 @@
   </si>
   <si>
     <t>ATT_LT_CUR</t>
+  </si>
+  <si>
+    <t>ATT_LT_FIR</t>
+  </si>
+  <si>
+    <t>ATT_LS_FIR</t>
   </si>
 </sst>
 </file>
@@ -685,10 +691,10 @@
   <sheetPr>
     <tabColor rgb="FFFFFF00"/>
   </sheetPr>
-  <dimension ref="A1:D26"/>
+  <dimension ref="A1:D28"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.25"/>
@@ -1061,6 +1067,34 @@
         <v>1</v>
       </c>
       <c r="D26">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="11" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27">
+        <v>0</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A28" s="11" t="s">
+        <v>90</v>
+      </c>
+      <c r="B28">
+        <v>0</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
         <v>0</v>
       </c>
     </row>

--- a/src/test/resources/TestDriver/TestEvent/ReferenceData/RefData_SBO_EVENTS.xlsx
+++ b/src/test/resources/TestDriver/TestEvent/ReferenceData/RefData_SBO_EVENTS.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arahmed\OneDrive - SS&amp;C Technologies, Inc\Desktop\Pers\fyntrac-data-main\fyntrac-data-main\src\test\resources\TestDriver\TestEvent\ReferenceData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{615E073D-04B6-4990-AD89-4511F77CE212}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41D659CA-BCFC-4286-8860-CAF6A9237874}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17520" tabRatio="500" firstSheet="1" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Transactions" sheetId="1" r:id="rId1"/>
@@ -19,6 +19,7 @@
     <sheet name="AccountType" sheetId="4" r:id="rId4"/>
     <sheet name="SubledgerMapping" sheetId="5" r:id="rId5"/>
     <sheet name="ChartOfAccount" sheetId="6" r:id="rId6"/>
+    <sheet name="xxComponentMaster" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -81,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="91">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="94">
   <si>
     <t>Name</t>
   </si>
@@ -354,13 +355,22 @@
   </si>
   <si>
     <t>ATT_LS_FIR</t>
+  </si>
+  <si>
+    <t>Id</t>
+  </si>
+  <si>
+    <t>Sample1</t>
+  </si>
+  <si>
+    <t>Sample2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -387,6 +397,13 @@
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="3">
@@ -475,7 +492,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="13">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
@@ -494,6 +511,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -693,7 +711,7 @@
   </sheetPr>
   <dimension ref="A1:D28"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
@@ -1938,4 +1956,49 @@
     <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;KffffffPage &amp;P</oddFooter>
   </headerFooter>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3865E455-69C4-40C8-A341-F3E750533793}">
+  <sheetPr>
+    <tabColor rgb="FFFFFF00"/>
+  </sheetPr>
+  <dimension ref="A1:B3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="3" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1" s="12" t="s">
+        <v>91</v>
+      </c>
+      <c r="B1" s="12" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2" s="3">
+        <v>2</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3" s="3">
+        <v>3</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>